--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5BCC27-FEFF-4FB0-9F29-27C0C23AEA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E94549-06E7-4CF9-A2AD-44A93F3C398D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="123">
   <si>
     <t>UC_N</t>
   </si>
@@ -276,7 +276,7 @@
     <t>H1</t>
   </si>
   <si>
-    <t>S1,S2,S3</t>
+    <t>S1,S2</t>
   </si>
   <si>
     <t>S2</t>
@@ -285,9 +285,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
@@ -372,30 +369,6 @@
     <t>S2aH8</t>
   </si>
   <si>
-    <t>S3aH1</t>
-  </si>
-  <si>
-    <t>S3aH2</t>
-  </si>
-  <si>
-    <t>S3aH3</t>
-  </si>
-  <si>
-    <t>S3aH4</t>
-  </si>
-  <si>
-    <t>S3aH5</t>
-  </si>
-  <si>
-    <t>S3aH6</t>
-  </si>
-  <si>
-    <t>S3aH7</t>
-  </si>
-  <si>
-    <t>S3aH8</t>
-  </si>
-  <si>
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
@@ -411,10 +384,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S1aH4,S2aH2,S1aH3,S3aH3,S3aH4,S3aH5,S3aH2</t>
-  </si>
-  <si>
-    <t>S2aH6,S3aH1,S2aH1,S3aH7,S1aH6,S1aH7,S3aH6,S1aH1,S2aH7,S2aH8,S1aH8,S3aH8</t>
+    <t>S1aH3,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S1aH4,S2aH2</t>
+  </si>
+  <si>
+    <t>S1aH7,S1aH1,S2aH7,S2aH8,S2aH6,S1aH6,S2aH1,S1aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -986,7 +959,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH6,S3aH1,S2aH1,S3aH7,S1aH6,S1aH7,S3aH6,S1aH1,S2aH7,S2aH8,S1aH8,S3aH8</v>
+        <v>S1aH7,S1aH1,S2aH7,S2aH8,S2aH6,S1aH6,S2aH1,S1aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1018,7 +991,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S1aH4,S2aH2,S1aH3,S3aH3,S3aH4,S3aH5,S3aH2</v>
+        <v>S1aH3,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S1aH4,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1030,7 +1003,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1041,7 +1014,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1049,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63318CFF-B3D1-40DF-B794-382FC4244126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E993AA-974A-4D58-A1E1-A278E7651A24}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1640,7 +1613,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
@@ -1689,11 +1662,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -1701,7 +1671,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -1709,7 +1679,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -1717,7 +1687,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
         <v>76</v>
@@ -1725,7 +1695,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1733,7 +1703,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1745,8 +1715,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF497F6-53A8-4734-8151-0F4DAC4A292B}">
-  <dimension ref="B2:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCF39F6-AA9B-4294-9224-F3ABDAC6F6FB}">
+  <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1754,13 +1724,13 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
@@ -1768,685 +1738,468 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
       </c>
       <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
         <v>89</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
       </c>
       <c r="M3" t="s">
         <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>3.1587199999999998E-3</v>
       </c>
       <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4">
         <v>0.18904627138184013</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.16266774641369736</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>2.1776719999999999E-2</v>
       </c>
       <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
         <v>93</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>95</v>
       </c>
       <c r="I5">
         <v>2.5774446846541756E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
         <v>79</v>
       </c>
       <c r="N5">
-        <v>0.18220731142989358</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>3.9224370000000001E-2</v>
       </c>
       <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
         <v>93</v>
       </c>
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6">
         <v>2.7641735376428118E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6">
-        <v>0.855124942156409</v>
-      </c>
-      <c r="O6" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.8174259999999998E-2</v>
       </c>
       <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
         <v>93</v>
       </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7">
         <v>2.9416206938830274E-2</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>0.53810236</v>
       </c>
       <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
         <v>93</v>
       </c>
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I8">
         <v>0.26091161298010562</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>4.0273830000000004E-2</v>
       </c>
       <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
         <v>93</v>
       </c>
-      <c r="E9" t="s">
-        <v>94</v>
-      </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I9">
         <v>2.8096921389714421E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>2.2318959999999999E-2</v>
       </c>
       <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10">
         <v>2.7725039807762135E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>4.3419000000000001E-3</v>
       </c>
       <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
         <v>93</v>
       </c>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>0.11352910620912776</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12">
-        <v>2.5614170375975687E-2</v>
+        <v>8.6154112388966891E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>1.1604300000000001E-3</v>
       </c>
       <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13">
-        <v>3.5584556609558949E-3</v>
+        <v>1.1752787234112896E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14">
-        <v>9.4349900000000007E-3</v>
+        <v>1.0125790000000001E-2</v>
       </c>
       <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" t="s">
-        <v>94</v>
-      </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14">
-        <v>3.9451012011446837E-3</v>
+        <v>1.2133811730211863E-2</v>
       </c>
       <c r="J14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15">
-        <v>1.376118E-2</v>
+        <v>2.2538929999999999E-2</v>
       </c>
       <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
         <v>93</v>
       </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15">
-        <v>4.2561067361226949E-3</v>
+        <v>1.272543010768137E-2</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16">
-        <v>0.13074809000000001</v>
+        <v>0.23130813</v>
       </c>
       <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
         <v>93</v>
       </c>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16">
-        <v>3.747003333173806E-2</v>
+        <v>0.10202610673701146</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>6.8125099999999999E-3</v>
       </c>
       <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
         <v>93</v>
       </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17">
-        <v>3.5588392309623199E-3</v>
+        <v>1.1741900819938747E-2</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>6.8303999999999999E-4</v>
       </c>
       <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
         <v>93</v>
       </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18">
-        <v>3.5192896763291586E-3</v>
+        <v>1.1881136732167032E-2</v>
       </c>
       <c r="J18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
         <v>93</v>
       </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19">
-        <v>1.4846321177627677E-2</v>
+        <v>4.9443373319382533E-2</v>
       </c>
       <c r="J19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
         <v>110</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20">
-        <v>6.0539942012991205E-2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21">
-        <v>8.1943315731570019E-3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22">
-        <v>6.9079999999999999E-4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22">
-        <v>8.188710529067179E-3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23">
-        <v>8.7777500000000008E-3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23">
-        <v>8.4693233715586753E-3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24">
-        <v>0.10056004</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24">
-        <v>6.455607340527339E-2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25">
-        <v>8.1830615889764268E-3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26">
-        <v>8.3618470558378729E-3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27">
-        <v>3.4597052141754854E-2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>93</v>
-      </c>
-      <c r="K27" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2455,8 +2208,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB09E979-C6BF-4359-89A8-21BEF0A9F0EF}">
-  <dimension ref="B2:O51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0988E06-BA95-45D1-AD76-BD5E941E75FE}">
+  <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2464,45 +2217,45 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
         <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -2513,16 +2266,16 @@
         <v>7.6684484001690589E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4">
         <v>0.15814245317126777</v>
@@ -2531,7 +2284,7 @@
         <v>13</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O4">
         <v>0.36832932282148367</v>
@@ -2545,16 +2298,16 @@
         <v>4.6316783929592507E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5">
         <v>2.929712893706948E-2</v>
@@ -2563,7 +2316,7 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O5">
         <v>0.1610899165626507</v>
@@ -2577,16 +2330,16 @@
         <v>3.5442408572209934E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6">
         <v>3.0879940804379922E-2</v>
@@ -2595,7 +2348,7 @@
         <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6">
         <v>0.14815607348908388</v>
@@ -2609,16 +2362,16 @@
         <v>3.5120204857917135E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7">
         <v>3.1307404387930129E-2</v>
@@ -2627,7 +2380,7 @@
         <v>13</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O7">
         <v>0.14737080124471036</v>
@@ -2641,16 +2394,16 @@
         <v>0.32558685329289216</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8">
         <v>0.24970137700173009</v>
@@ -2659,7 +2412,7 @@
         <v>13</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O8">
         <v>0.1814661874535799</v>
@@ -2673,16 +2426,16 @@
         <v>4.1886482858066273E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9">
         <v>3.1653346927588505E-2</v>
@@ -2691,7 +2444,7 @@
         <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O9">
         <v>0.16708113294018689</v>
@@ -2705,16 +2458,16 @@
         <v>3.7858936429406062E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10">
         <v>3.1156850278775055E-2</v>
@@ -2723,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O10">
         <v>0.1377058881429889</v>
@@ -2737,16 +2490,16 @@
         <v>6.6857270715759656E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11">
         <v>0.10841929270143416</v>
@@ -2755,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O11">
         <v>0.20001557872868481</v>
@@ -2763,778 +2516,434 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>4.8744292237442921E-2</v>
+        <v>9.7488584474885842E-2</v>
       </c>
       <c r="C12">
-        <v>1.9250014502482003E-2</v>
+        <v>3.8500029004964E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12">
-        <v>3.7212426865282221E-2</v>
+        <v>7.7907863951462375E-2</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O12">
-        <v>0.20134789143260856</v>
+        <v>0.36111492639189469</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13">
-        <v>6.9634703196347035E-3</v>
+        <v>1.3926940639269407E-2</v>
       </c>
       <c r="C13">
-        <v>1.1626846994671376E-2</v>
+        <v>2.3253693989342742E-2</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13">
-        <v>6.6898936434662487E-3</v>
+        <v>1.4298103465211199E-2</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
       </c>
       <c r="N13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O13">
-        <v>8.5757665349928569E-2</v>
+        <v>0.16377130531500517</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14">
-        <v>6.9634703196347035E-3</v>
+        <v>1.3926940639269407E-2</v>
       </c>
       <c r="C14">
-        <v>8.8970655263572278E-3</v>
+        <v>1.7794131052714456E-2</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J14">
-        <v>7.1129304901544257E-3</v>
+        <v>1.5111496651677339E-2</v>
       </c>
       <c r="M14" t="s">
         <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O14">
-        <v>6.9062180476435531E-2</v>
+        <v>0.15698859464131165</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15">
-        <v>6.9634703196347035E-3</v>
+        <v>1.3926940639269407E-2</v>
       </c>
       <c r="C15">
-        <v>8.8161831124812517E-3</v>
+        <v>1.763236622496251E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J15">
-        <v>7.1906217871427255E-3</v>
+        <v>1.5364609130116943E-2</v>
       </c>
       <c r="M15" t="s">
         <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O15">
-        <v>6.7023222881490874E-2</v>
+        <v>0.15370214128183868</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16">
-        <v>5.5707762557077628E-2</v>
+        <v>0.11141552511415526</v>
       </c>
       <c r="C16">
-        <v>8.1731679221672515E-2</v>
+        <v>0.16346335844334503</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J16">
-        <v>5.7481011055481458E-2</v>
+        <v>0.12194448528351123</v>
       </c>
       <c r="M16" t="s">
         <v>13</v>
       </c>
       <c r="N16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O16">
-        <v>9.1683107910291328E-2</v>
+        <v>0.1756330646048021</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17">
-        <v>6.9634703196347035E-3</v>
+        <v>1.3926940639269407E-2</v>
       </c>
       <c r="C17">
-        <v>1.0514713803876726E-2</v>
+        <v>2.1029427607753434E-2</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J17">
-        <v>7.2010221782435177E-3</v>
+        <v>1.5641619980165406E-2</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
       </c>
       <c r="N17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O17">
-        <v>6.1513546915225481E-2</v>
+        <v>0.15844903238160701</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18">
-        <v>6.9634703196347035E-3</v>
+        <v>1.3926940639269407E-2</v>
       </c>
       <c r="C18">
-        <v>9.503683630427041E-3</v>
+        <v>1.9007367260854072E-2</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J18">
-        <v>7.1669899959555831E-3</v>
+        <v>1.5411516020377663E-2</v>
       </c>
       <c r="M18" t="s">
         <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O18">
-        <v>5.4986443284197106E-2</v>
+        <v>0.13186956999212995</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19">
-        <v>2.7853881278538814E-2</v>
+        <v>5.5707762557077628E-2</v>
       </c>
       <c r="C19">
-        <v>1.6783100879264767E-2</v>
+        <v>3.3566201758529535E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19">
-        <v>2.5371306339946768E-2</v>
+        <v>5.3762511307302807E-2</v>
       </c>
       <c r="M19" t="s">
         <v>13</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O19">
-        <v>0.15568071991556032</v>
+        <v>0.17325162431209185</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <v>4.8744292237442921E-2</v>
-      </c>
-      <c r="C20">
-        <v>1.9250014502482003E-2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>121</v>
-      </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="J20">
-        <v>4.0695437086180161E-2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" t="s">
-        <v>110</v>
-      </c>
-      <c r="O20">
-        <v>0.31765670187374107</v>
+        <v>0.19119576375104483</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B21">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="C21">
-        <v>1.1626846994671376E-2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" t="s">
-        <v>121</v>
-      </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J21">
-        <v>7.6082098217449511E-3</v>
-      </c>
-      <c r="M21" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" t="s">
-        <v>111</v>
-      </c>
-      <c r="O21">
-        <v>0.1075576398160154</v>
+        <v>2.7849813000035677E-2</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B22">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="C22">
-        <v>8.8970655263572278E-3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J22">
-        <v>7.9985661615229135E-3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" t="s">
-        <v>112</v>
-      </c>
-      <c r="O22">
-        <v>0.10528395697637927</v>
+        <v>2.7976368189220828E-2</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B23">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="C23">
-        <v>8.8161831124812517E-3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" t="s">
-        <v>121</v>
-      </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="J23">
-        <v>8.1739873429742156E-3</v>
-      </c>
-      <c r="M23" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" t="s">
-        <v>113</v>
-      </c>
-      <c r="O23">
-        <v>9.7370192076453366E-2</v>
+        <v>2.8010546436050554E-2</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B24">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="C24">
-        <v>8.1731679221672515E-2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" t="s">
-        <v>121</v>
-      </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J24">
-        <v>6.4463474228029768E-2</v>
-      </c>
-      <c r="M24" t="s">
-        <v>13</v>
-      </c>
-      <c r="N24" t="s">
-        <v>114</v>
-      </c>
-      <c r="O24">
-        <v>0.12418315055197016</v>
+        <v>0.22402377624179404</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B25">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="C25">
-        <v>1.0514713803876726E-2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" t="s">
-        <v>121</v>
-      </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="J25">
-        <v>8.4405978019218876E-3</v>
-      </c>
-      <c r="M25" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" t="s">
-        <v>115</v>
-      </c>
-      <c r="O25">
-        <v>8.8789574057143383E-2</v>
+        <v>2.8038206592293918E-2</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B26">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="C26">
-        <v>9.503683630427041E-3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" t="s">
-        <v>121</v>
-      </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="J26">
-        <v>8.2445260244220792E-3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" t="s">
-        <v>116</v>
-      </c>
-      <c r="O26">
-        <v>7.1656401852254303E-2</v>
+        <v>2.7998508742778077E-2</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B27">
-        <v>2.7853881278538814E-2</v>
-      </c>
-      <c r="C27">
-        <v>1.6783100879264767E-2</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="H27" t="s">
         <v>117</v>
       </c>
-      <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" t="s">
-        <v>125</v>
-      </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J27">
-        <v>2.8391204967356039E-2</v>
-      </c>
-      <c r="M27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O27">
-        <v>0.12414916656638697</v>
+        <v>0.11069810064752754</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H28" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J28">
-        <v>0.19119576375104483</v>
+        <v>9.6024046164237833E-2</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H29" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J29">
-        <v>2.7849813000035677E-2</v>
+        <v>1.3971053926666539E-2</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H30" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J30">
-        <v>2.7976368189220828E-2</v>
+        <v>1.4036089532426842E-2</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H31" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J31">
-        <v>2.8010546436050554E-2</v>
+        <v>1.4056327375126666E-2</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J32">
-        <v>0.22402377624179404</v>
+        <v>0.11237287083703776</v>
       </c>
     </row>
     <row r="33" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J33">
-        <v>2.8038206592293918E-2</v>
+        <v>1.4078476034268194E-2</v>
       </c>
     </row>
     <row r="34" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H34" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J34">
-        <v>2.7998508742778077E-2</v>
+        <v>1.4060077858992522E-2</v>
       </c>
     </row>
     <row r="35" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H35" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J35">
-        <v>0.11069810064752754</v>
-      </c>
-    </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H36" t="s">
-        <v>126</v>
-      </c>
-      <c r="I36" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36">
-        <v>4.8068290744149533E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H37" t="s">
-        <v>126</v>
-      </c>
-      <c r="I37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J37">
-        <v>6.9767447410164617E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H38" t="s">
-        <v>126</v>
-      </c>
-      <c r="I38" t="s">
-        <v>104</v>
-      </c>
-      <c r="J38">
-        <v>7.0105690439994078E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H39" t="s">
-        <v>126</v>
-      </c>
-      <c r="I39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39">
-        <v>7.01678092362418E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H40" t="s">
-        <v>126</v>
-      </c>
-      <c r="I40" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40">
-        <v>5.6130732267278459E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H41" t="s">
-        <v>126</v>
-      </c>
-      <c r="I41" t="s">
-        <v>107</v>
-      </c>
-      <c r="J41">
-        <v>7.0176124965296805E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H42" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42">
-        <v>7.01489142186706E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H43" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" t="s">
-        <v>109</v>
-      </c>
-      <c r="J43">
-        <v>2.7795978691315941E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H44" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" t="s">
-        <v>110</v>
-      </c>
-      <c r="J44">
-        <v>4.7955755420088293E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H45" t="s">
-        <v>126</v>
-      </c>
-      <c r="I45" t="s">
-        <v>111</v>
-      </c>
-      <c r="J45">
-        <v>6.9943091856500767E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H46" t="s">
-        <v>126</v>
-      </c>
-      <c r="I46" t="s">
-        <v>112</v>
-      </c>
-      <c r="J46">
-        <v>7.0255204884274343E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H47" t="s">
-        <v>126</v>
-      </c>
-      <c r="I47" t="s">
-        <v>113</v>
-      </c>
-      <c r="J47">
-        <v>7.0395464515024871E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H48" t="s">
-        <v>126</v>
-      </c>
-      <c r="I48" t="s">
-        <v>114</v>
-      </c>
-      <c r="J48">
-        <v>5.6242138569759292E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H49" t="s">
-        <v>126</v>
-      </c>
-      <c r="I49" t="s">
-        <v>115</v>
-      </c>
-      <c r="J49">
-        <v>7.0608635377385123E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I50" t="s">
-        <v>116</v>
-      </c>
-      <c r="J50">
-        <v>7.0451864371254619E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H51" t="s">
-        <v>126</v>
-      </c>
-      <c r="I51" t="s">
-        <v>117</v>
-      </c>
-      <c r="J51">
-        <v>2.7813995979182275E-2</v>
+        <v>5.5609974670498219E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFEF51-D525-4B7F-B813-75AA21F69C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3F16CC-CDF3-494C-96EF-7569691E5F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -384,10 +384,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH4,S2aH2,S1aH3,S1aH5,S2aH4,S2aH5</t>
-  </si>
-  <si>
-    <t>S1aH8,S2aH6,S2aH8,S1aH7,S1aH6,S1aH1,S2aH7,S2aH1</t>
+    <t>S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S1aH4,S2aH2,S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH1,S2aH7,S2aH1,S1aH6,S2aH8,S1aH8,S2aH6,S1aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -959,7 +959,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH8,S2aH6,S2aH8,S1aH7,S1aH6,S1aH1,S2aH7,S2aH1</v>
+        <v>S1aH1,S2aH7,S2aH1,S1aH6,S2aH8,S1aH8,S2aH6,S1aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -991,7 +991,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH4,S2aH2,S1aH3,S1aH5,S2aH4,S2aH5</v>
+        <v>S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S1aH4,S2aH2,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E52F7F9-B2BF-48C0-92B2-D8682143B2E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93179B3-6DCB-478B-9ACE-47C51B93B489}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B1F6A8-4921-4B25-966E-B0E0F47D8B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050EA9CD-05E5-47E0-ADE5-F78247C4B379}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2208,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8608E2-2F7E-4256-82D5-07A56D47CCAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5371E14A-D34B-4044-9266-95C077A71EAE}">
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3F16CC-CDF3-494C-96EF-7569691E5F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B59874-82C0-4F00-80AE-C2F28B8FC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -384,10 +384,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S1aH4,S2aH2,S1aH3</t>
-  </si>
-  <si>
-    <t>S1aH1,S2aH7,S2aH1,S1aH6,S2aH8,S1aH8,S2aH6,S1aH7</t>
+    <t>S1aH3,S1aH4,S2aH2,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5</t>
+  </si>
+  <si>
+    <t>S1aH7,S2aH6,S2aH8,S1aH8,S1aH1,S2aH7,S2aH1,S1aH6</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -959,7 +959,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH1,S2aH7,S2aH1,S1aH6,S2aH8,S1aH8,S2aH6,S1aH7</v>
+        <v>S1aH7,S2aH6,S2aH8,S1aH8,S1aH1,S2aH7,S2aH1,S1aH6</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -991,7 +991,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH5,S2aH4,S2aH5,S1aH4,S2aH2,S1aH3</v>
+        <v>S1aH3,S1aH4,S2aH2,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93179B3-6DCB-478B-9ACE-47C51B93B489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCE65E3-BAC1-404C-887C-02F077BD532A}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050EA9CD-05E5-47E0-ADE5-F78247C4B379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651FB53F-58A8-4A3A-A680-0B751C1D8690}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1794,10 +1794,10 @@
         <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.3448750578435909</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O4" t="s">
         <v>121</v>
@@ -1829,10 +1829,10 @@
         <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.855124942156409</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O5" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5371E14A-D34B-4044-9266-95C077A71EAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A0F52-DDF0-4A2C-AFB1-8AC0FCCBE31E}">
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B59874-82C0-4F00-80AE-C2F28B8FC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5415626B-D66A-417D-A4CB-7E86EA10E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -384,10 +384,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1aH4,S2aH2,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5</t>
-  </si>
-  <si>
-    <t>S1aH7,S2aH6,S2aH8,S1aH8,S1aH1,S2aH7,S2aH1,S1aH6</t>
+    <t>S1aH5,S2aH4,S2aH5,S1aH3,S1aH2,S2aH3,S1aH4,S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH8,S1aH6,S1aH7,S2aH6,S1aH1,S2aH7,S2aH1,S1aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -959,7 +959,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S2aH6,S2aH8,S1aH8,S1aH1,S2aH7,S2aH1,S1aH6</v>
+        <v>S2aH8,S1aH6,S1aH7,S2aH6,S1aH1,S2aH7,S2aH1,S1aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -991,7 +991,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1aH4,S2aH2,S1aH2,S2aH3,S1aH5,S2aH4,S2aH5</v>
+        <v>S1aH5,S2aH4,S2aH5,S1aH3,S1aH2,S2aH3,S1aH4,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCE65E3-BAC1-404C-887C-02F077BD532A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780133E4-821F-4473-8F2A-A7DAAE0ADCC4}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651FB53F-58A8-4A3A-A680-0B751C1D8690}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9D3FC8-5D21-45C6-8165-934A2E94E8D0}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1794,10 +1794,10 @@
         <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.855124942156409</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O4" t="s">
         <v>121</v>
@@ -1829,10 +1829,10 @@
         <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.3448750578435909</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O5" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A0F52-DDF0-4A2C-AFB1-8AC0FCCBE31E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A9227-62A5-4BF7-A8F2-7EB3945B25C0}">
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5415626B-D66A-417D-A4CB-7E86EA10E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6819C3DF-F62D-47DC-9D87-79E71D338574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -384,10 +384,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH5,S2aH4,S2aH5,S1aH3,S1aH2,S2aH3,S1aH4,S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH8,S1aH6,S1aH7,S2aH6,S1aH1,S2aH7,S2aH1,S1aH8</t>
+    <t>S1aH5,S2aH4,S2aH5,S1aH2,S2aH3,S1aH4,S2aH2,S1aH3</t>
+  </si>
+  <si>
+    <t>S2aH8,S1aH6,S1aH7,S1aH1,S2aH7,S2aH1,S2aH6,S1aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -959,7 +959,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S1aH6,S1aH7,S2aH6,S1aH1,S2aH7,S2aH1,S1aH8</v>
+        <v>S2aH8,S1aH6,S1aH7,S1aH1,S2aH7,S2aH1,S2aH6,S1aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -991,7 +991,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH5,S2aH4,S2aH5,S1aH3,S1aH2,S2aH3,S1aH4,S2aH2</v>
+        <v>S1aH5,S2aH4,S2aH5,S1aH2,S2aH3,S1aH4,S2aH2,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780133E4-821F-4473-8F2A-A7DAAE0ADCC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D600A058-60F4-4A01-A8C1-AFD32BC0A05F}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9D3FC8-5D21-45C6-8165-934A2E94E8D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA15539-4244-47F4-93B2-F4E5CD4C8D0A}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2208,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A9227-62A5-4BF7-A8F2-7EB3945B25C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A76D470-70A7-4016-87BF-D20DC447EB03}">
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6819C3DF-F62D-47DC-9D87-79E71D338574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC73845A-7A40-48E1-9F6D-5B5D3A9561F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="125">
   <si>
     <t>UC_N</t>
   </si>
@@ -252,6 +252,9 @@
     <t>timeslice</t>
   </si>
   <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
     <t>season</t>
   </si>
   <si>
@@ -303,7 +306,13 @@
     <t>H8</t>
   </si>
   <si>
-    <t>~TimeSlices</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
   </si>
   <si>
     <t>com_fr</t>
@@ -312,7 +321,7 @@
     <t>process</t>
   </si>
   <si>
-    <t>commodity</t>
+    <t>elc_spv-ITA</t>
   </si>
   <si>
     <t>S1aH1</t>
@@ -321,9 +330,6 @@
     <t>IMPNRGZ</t>
   </si>
   <si>
-    <t>elc_spv-ITA</t>
-  </si>
-  <si>
     <t>S1aH2</t>
   </si>
   <si>
@@ -369,12 +375,12 @@
     <t>S2aH8</t>
   </si>
   <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
     <t>elc_won-ITA</t>
   </si>
   <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
     <t>g_yrfr</t>
   </si>
   <si>
@@ -384,10 +390,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH5,S2aH4,S2aH5,S1aH2,S2aH3,S1aH4,S2aH2,S1aH3</t>
-  </si>
-  <si>
-    <t>S2aH8,S1aH6,S1aH7,S1aH1,S2aH7,S2aH1,S2aH6,S1aH8</t>
+    <t>S1aH4,S2aH2,S1aH3,S1aH6,S2aH6,S1aH2,S1aH7,S2aH3,S1aH5,S2aH4,S2aH5,S2aH7</t>
+  </si>
+  <si>
+    <t>S2aH1,S1aH1,S1aH8,S2aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -399,6 +405,9 @@
     <t>com_pkflx</t>
   </si>
   <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
     <t>ncap_afs</t>
   </si>
   <si>
@@ -406,16 +415,18 @@
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,8 +480,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +531,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -535,6 +591,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -546,7 +632,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,6 +648,24 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -584,6 +688,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD1207C-4C74-218B-930B-FD4D8054E646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6598F964-62E2-267D-8EAF-6B0DBDE936AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B890F98E-FB9B-CB3A-0A2D-1B5711DE09C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -959,7 +1228,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S1aH6,S1aH7,S1aH1,S2aH7,S2aH1,S2aH6,S1aH8</v>
+        <v>S2aH1,S1aH1,S1aH8,S2aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -991,7 +1260,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH5,S2aH4,S2aH5,S1aH2,S2aH3,S1aH4,S2aH2,S1aH3</v>
+        <v>S1aH4,S2aH2,S1aH3,S1aH6,S2aH6,S1aH2,S1aH7,S2aH3,S1aH5,S2aH4,S2aH5,S2aH7</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1003,7 +1272,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1014,7 +1283,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1022,7 +1291,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1604,1349 +1873,1650 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D600A058-60F4-4A01-A8C1-AFD32BC0A05F}">
-  <dimension ref="B2:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E66A976-13EB-4556-9D69-D582668A4DD6}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="6" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA15539-4244-47F4-93B2-F4E5CD4C8D0A}">
-  <dimension ref="B2:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2677A4F6-A804-4272-8298-AAEE1C9DAF8C}">
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.59765625" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.68248503498593E-2</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.22970195015263808</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="24">
+        <v>1.0373322535863025</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3.8116441984063956E-2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="18">
+        <v>3.103252906051791E-2</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="26">
+        <v>0.16266774641369736</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="15">
+        <v>6.1887757755837457E-2</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="17">
+        <v>3.1242262740711402E-2</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="16">
+        <v>7.9737855461973359E-2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="18">
+        <v>3.1985636272483194E-2</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.53995120753242987</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.21911245607464247</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="16">
+        <v>7.2991948638672824E-2</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="18">
+        <v>3.9180636238443992E-2</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="15">
+        <v>5.5057014501735849E-2</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="17">
+        <v>3.7918663588915685E-2</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="19">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="16">
+        <v>4.2730438970768919E-2</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.20550418822866234</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="20">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="17">
+        <v>5.0822876210103701E-2</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="16">
+        <v>4.896936097582037E-4</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="18">
+        <v>7.249853533903272E-3</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="15">
+        <v>4.8235789482883535E-3</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="17">
+        <v>7.120478132112207E-3</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="16">
+        <v>9.0689161051010821E-3</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="18">
+        <v>7.0990117886305069E-3</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="15">
+        <v>6.9667478164308058E-2</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="17">
+        <v>4.4327778320820965E-2</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="16">
+        <v>6.9665878919250362E-3</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="18">
+        <v>7.3824204929971325E-3</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="20">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D25" s="15">
+        <v>1.6862300850866115E-3</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4">
-        <v>3.1587199999999998E-3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I25" s="17">
+        <v>7.3639650550510506E-3</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="19">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4">
-        <v>0.18904627138184013</v>
-      </c>
-      <c r="J4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="C26" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4">
-        <v>0.3448750578435909</v>
-      </c>
-      <c r="O4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5">
-        <v>2.1776719999999999E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5">
-        <v>2.5774446846541756E-2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5">
-        <v>0.855124942156409</v>
-      </c>
-      <c r="O5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6">
-        <v>3.9224370000000001E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6">
-        <v>2.7641735376428118E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I26" s="18">
+        <v>4.2955294109160519E-2</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7">
-        <v>5.8174259999999998E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7">
-        <v>2.9416206938830274E-2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8">
-        <v>0.53810236</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8">
-        <v>0.26091161298010562</v>
-      </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9">
-        <v>4.0273830000000004E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9">
-        <v>2.8096921389714421E-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10">
-        <v>2.2318959999999999E-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10">
-        <v>2.7725039807762135E-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>4.3419000000000001E-3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>0.11352910620912776</v>
-      </c>
-      <c r="J11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12">
+      <c r="N26" s="20">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12">
-        <v>8.6154112388966891E-2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13">
-        <v>1.1604300000000001E-3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13">
-        <v>1.1752787234112896E-2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14">
-        <v>1.0125790000000001E-2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14">
-        <v>1.2133811730211863E-2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15">
-        <v>2.2538929999999999E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15">
-        <v>1.272543010768137E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16">
-        <v>0.23130813</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16">
-        <v>0.10202610673701146</v>
-      </c>
-      <c r="J16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17">
-        <v>6.8125099999999999E-3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17">
-        <v>1.1741900819938747E-2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18">
-        <v>6.8303999999999999E-4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18">
-        <v>1.1881136732167032E-2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19">
-        <v>4.9443373319382533E-2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" t="s">
-        <v>110</v>
+      <c r="O26" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A76D470-70A7-4016-87BF-D20DC447EB03}">
-  <dimension ref="B2:O35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADB5ED4-C3C3-40BB-BD59-763F47FC6BF3}">
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="17">
+        <v>0.24292237442922374</v>
+      </c>
+      <c r="C11" s="17">
+        <v>9.5934498504172599E-2</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.19535488003654997</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.38120648461966344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="18">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="C12" s="18">
+        <v>5.7943630924263897E-2</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="18">
+        <v>3.5987022580535724E-2</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0.17807966684575027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="17">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>4.4339474098567179E-2</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="17">
+        <v>3.7992871294534346E-2</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0.16360291619848955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="18">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="C14" s="18">
+        <v>4.393638797039838E-2</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="18">
+        <v>3.8498026175072864E-2</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0.16336172083188893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="17">
+        <v>0.20821917808219179</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.27228467957801922</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.22988648529778771</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0.17241983161707997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="18">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="C16" s="18">
+        <v>6.7516926468272731E-2</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="18">
+        <v>3.8563143136394536E-2</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0.19307834925650003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="17">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>6.7516926468272731E-2</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="17">
+        <v>3.8732759623029293E-2</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.18905307094456725</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="18">
+        <v>0.20821917808219179</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.1834041883168005</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.21096880842194357</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0.28486765748092147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="17">
+        <v>4.8744292237442921E-2</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1.9250014502482003E-2</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="17">
+        <v>4.0695437086180161E-2</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.31765670187374107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="18">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1.1626846994671376E-2</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="18">
+        <v>7.6082098217449511E-3</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0.1075576398160154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="17">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="C21" s="17">
+        <v>8.8970655263572278E-3</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="17">
+        <v>7.9985661615229135E-3</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0.10528395697637927</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="18">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="C22" s="18">
+        <v>8.8161831124812517E-3</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="18">
+        <v>8.1739873429742156E-3</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22" s="18">
+        <v>9.7370192076453366E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" s="17">
+        <v>4.1780821917808221E-2</v>
+      </c>
+      <c r="C23" s="17">
+        <v>5.4636070573220973E-2</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="17">
+        <v>4.7893813516173729E-2</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0.10458870945837129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B24" s="18">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.354780432422577E-2</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="18">
+        <v>8.188292574055088E-3</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="18">
+        <v>9.6434969362042988E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B25" s="17">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1.354780432422577E-2</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E25" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I25" s="17">
+        <v>8.3813681378009496E-3</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="M25" s="17">
+        <v>8.8259341200700892E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B26" s="18">
+        <v>4.1780821917808221E-2</v>
+      </c>
+      <c r="C26" s="18">
+        <v>3.6801498313568527E-2</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>0.19417808219178082</v>
-      </c>
-      <c r="C4">
-        <v>7.6684484001690589E-2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4">
-        <v>0.15814245317126777</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="H26" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="18">
+        <v>4.5076328793700007E-2</v>
+      </c>
+      <c r="K26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4">
-        <v>0.36832932282148367</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2.7739726027397261E-2</v>
-      </c>
-      <c r="C5">
-        <v>4.6316783929592507E-2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="L26" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0.1979747112817225</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5">
-        <v>2.929712893706948E-2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5">
-        <v>0.1610899165626507</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>2.7739726027397261E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.5442408572209934E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6">
-        <v>3.0879940804379922E-2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6">
-        <v>0.14815607348908388</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>2.7739726027397261E-2</v>
-      </c>
-      <c r="C7">
-        <v>3.5120204857917135E-2</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I27" s="17">
+        <v>0.23926405449519433</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G28" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7">
-        <v>3.1307404387930129E-2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7">
-        <v>0.14737080124471036</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>0.22191780821917809</v>
-      </c>
-      <c r="C8">
-        <v>0.32558685329289216</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I28" s="18">
+        <v>3.4826557741052137E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8">
-        <v>0.24970137700173009</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8">
-        <v>0.1814661874535799</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>2.7739726027397261E-2</v>
-      </c>
-      <c r="C9">
-        <v>4.1886482858066273E-2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I29" s="17">
+        <v>3.4986937233220237E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9">
-        <v>3.1653346927588505E-2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9">
-        <v>0.16708113294018689</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>2.7739726027397261E-2</v>
-      </c>
-      <c r="C10">
-        <v>3.7858936429406062E-2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I30" s="18">
+        <v>3.5027327359674738E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G31" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10">
-        <v>3.1156850278775055E-2</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>99</v>
-      </c>
-      <c r="O10">
-        <v>0.1377058881429889</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>0.11095890410958904</v>
-      </c>
-      <c r="C11">
-        <v>6.6857270715759656E-2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="I31" s="17">
+        <v>0.21007587897246449</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G32" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>0.10841929270143416</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11">
-        <v>0.20001557872868481</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>9.7488584474885842E-2</v>
-      </c>
-      <c r="C12">
-        <v>3.8500029004964E-2</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="I32" s="18">
+        <v>3.5032533846642282E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G33" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12">
-        <v>7.7907863951462375E-2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12">
-        <v>0.36111492639189469</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>1.3926940639269407E-2</v>
-      </c>
-      <c r="C13">
-        <v>2.3253693989342742E-2</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="I33" s="17">
+        <v>3.5046095689965744E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G34" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13">
-        <v>1.4298103465211199E-2</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>102</v>
-      </c>
-      <c r="O13">
-        <v>0.16377130531500517</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>1.3926940639269407E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.7794131052714456E-2</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="I34" s="18">
+        <v>0.20856329859231221</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14">
-        <v>1.5111496651677339E-2</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>103</v>
-      </c>
-      <c r="O14">
-        <v>0.15698859464131165</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>1.3926940639269407E-2</v>
-      </c>
-      <c r="C15">
-        <v>1.763236622496251E-2</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="I35" s="17">
+        <v>4.7955755420088293E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G36" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15">
-        <v>1.5364609130116943E-2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>104</v>
-      </c>
-      <c r="O15">
-        <v>0.15370214128183868</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>0.11141552511415526</v>
-      </c>
-      <c r="C16">
-        <v>0.16346335844334503</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="I36" s="18">
+        <v>6.9943091856500767E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G37" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16">
-        <v>0.12194448528351123</v>
-      </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O16">
-        <v>0.1756330646048021</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>1.3926940639269407E-2</v>
-      </c>
-      <c r="C17">
-        <v>2.1029427607753434E-2</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="I37" s="17">
+        <v>7.0255204884274343E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G38" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17">
-        <v>1.5641619980165406E-2</v>
-      </c>
-      <c r="M17" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" t="s">
-        <v>106</v>
-      </c>
-      <c r="O17">
-        <v>0.15844903238160701</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>1.3926940639269407E-2</v>
-      </c>
-      <c r="C18">
-        <v>1.9007367260854072E-2</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="I38" s="18">
+        <v>7.0395464515024871E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G39" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18">
-        <v>1.5411516020377663E-2</v>
-      </c>
-      <c r="M18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18">
-        <v>0.13186956999212995</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="C19">
-        <v>3.3566201758529535E-2</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="I39" s="17">
+        <v>4.2145320555180506E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G40" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19">
-        <v>5.3762511307302807E-2</v>
-      </c>
-      <c r="M19" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19">
-        <v>0.17325162431209185</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20">
-        <v>0.19119576375104483</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H21" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21">
-        <v>2.7849813000035677E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22">
-        <v>2.7976368189220828E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H23" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23">
-        <v>2.8010546436050554E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H24" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24">
-        <v>0.22402377624179404</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25">
-        <v>2.8038206592293918E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H26" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26">
-        <v>2.7998508742778077E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27">
-        <v>0.11069810064752754</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H28" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28">
-        <v>9.6024046164237833E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29">
-        <v>1.3971053926666539E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" t="s">
-        <v>103</v>
-      </c>
-      <c r="J30">
-        <v>1.4036089532426842E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31">
-        <v>1.4056327375126666E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H32" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32">
-        <v>0.11237287083703776</v>
-      </c>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H33" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33">
-        <v>1.4078476034268194E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H34" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" t="s">
-        <v>107</v>
-      </c>
-      <c r="J34">
-        <v>1.4060077858992522E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35">
-        <v>5.5609974670498219E-2</v>
+      <c r="I40" s="18">
+        <v>7.0406902395060821E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G41" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" s="17">
+        <v>7.0561277750727106E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G42" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="18">
+        <v>4.1920045954046248E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC73845A-7A40-48E1-9F6D-5B5D3A9561F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA81EFE4-C3D9-4B63-9189-EFA4BE9DD249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -390,10 +390,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S1aH3,S1aH6,S2aH6,S1aH2,S1aH7,S2aH3,S1aH5,S2aH4,S2aH5,S2aH7</t>
-  </si>
-  <si>
-    <t>S2aH1,S1aH1,S1aH8,S2aH8</t>
+    <t>S1aH5,S2aH4,S2aH5,S2aH7,S1aH4,S2aH2,S1aH6,S2aH6,S1aH3,S1aH2,S1aH7,S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH8,S1aH1,S2aH1,S1aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -710,7 +710,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD1207C-4C74-218B-930B-FD4D8054E646}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFAB5C7-9E24-2362-B867-8FA61AD0C06A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +765,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6598F964-62E2-267D-8EAF-6B0DBDE936AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A294B755-8424-D21B-9D10-1C8FC88287CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -820,7 +820,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B890F98E-FB9B-CB3A-0A2D-1B5711DE09C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14744790-4726-7C90-521F-73781DAFAFFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S1aH1,S1aH8,S2aH8</v>
+        <v>S2aH8,S1aH1,S2aH1,S1aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S1aH3,S1aH6,S2aH6,S1aH2,S1aH7,S2aH3,S1aH5,S2aH4,S2aH5,S2aH7</v>
+        <v>S1aH5,S2aH4,S2aH5,S2aH7,S1aH4,S2aH2,S1aH6,S2aH6,S1aH3,S1aH2,S1aH7,S2aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1873,7 +1873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E66A976-13EB-4556-9D69-D582668A4DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBA8B2F-922A-4AFE-B608-8FE118075B1A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2025,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2677A4F6-A804-4272-8298-AAEE1C9DAF8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949E8035-4A0B-4707-A37D-3629D48DEE99}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2752,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADB5ED4-C3C3-40BB-BD59-763F47FC6BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B0247-569F-4185-8F01-C92E1D09201B}">
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40FA3B62-919B-4602-ACFB-35BBEC0340A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{682672E8-9922-48DC-8E4B-87C690E516D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -387,10 +387,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S2aH3,S2aH6,S1aH4,S2aH2,S1aH3,S1aH6,S2aH7,S1aH5,S2aH4,S2aH5</t>
-  </si>
-  <si>
-    <t>S1aH8,S1aH1,S2aH1,S2aH8</t>
+    <t>S1aH5,S2aH4,S2aH5,S2aH7,S1aH2,S1aH7,S2aH3,S1aH3,S1aH6,S1aH4,S2aH2,S2aH6</t>
+  </si>
+  <si>
+    <t>S1aH1,S1aH8,S2aH1,S2aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -962,7 +962,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH8,S1aH1,S2aH1,S2aH8</v>
+        <v>S1aH1,S1aH8,S2aH1,S2aH8</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -994,7 +994,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S2aH3,S2aH6,S1aH4,S2aH2,S1aH3,S1aH6,S2aH7,S1aH5,S2aH4,S2aH5</v>
+        <v>S1aH5,S2aH4,S2aH5,S2aH7,S1aH2,S1aH7,S2aH3,S1aH3,S1aH6,S1aH4,S2aH2,S2aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1607,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2BE6AF-D5DF-4972-BD8F-18D7873EBFD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8FE3D7-6A76-46CA-B337-F26417B824D2}">
   <dimension ref="B9:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1718,7 +1718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD7EC12-C988-4942-97BD-4ADE911D2DFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB583FD-371E-4C4B-B7C3-28BCF81975AF}">
   <dimension ref="B9:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1824,10 +1824,10 @@
         <v>94</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R11">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="S11" t="s">
         <v>123</v>
@@ -1871,10 +1871,10 @@
         <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R12">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="S12" t="s">
         <v>123</v>
@@ -2418,7 +2418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A69F6D-B96B-4AF4-ABCE-98ABAC3F3D95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFDF9BD-8156-4675-8079-1C8E5E409BC3}">
   <dimension ref="B9:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AF60545-5BC6-4A1D-A3F0-4610553D81E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A68B78-4F10-4399-9BA6-0D8230E0891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -231,13 +231,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S1aH6,S1aH4,S2aH2,S2aH7,S1aH2,S1aH7,S2aH3,S1aH5,S2aH4,S2aH5,S2aH6</t>
+    <t>S1aH3,S1aH4,S2aH2,S1aH6,S2aH6,S1aH5,S2aH4,S2aH5,S1aH2,S1aH7,S2aH3,S2aH7</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2aH8,S1aH8,S2aH1,S1aH1</t>
+    <t>S1aH8,S1aH1,S2aH1,S2aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -840,7 +840,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2aH8,S1aH8,S2aH1,S1aH1</v>
+        <v>S1aH8,S1aH1,S2aH1,S2aH8</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -872,7 +872,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH3,S1aH6,S1aH4,S2aH2,S2aH7,S1aH2,S1aH7,S2aH3,S1aH5,S2aH4,S2aH5,S2aH6</v>
+        <v>S1aH3,S1aH4,S2aH2,S1aH6,S2aH6,S1aH5,S2aH4,S2aH5,S1aH2,S1aH7,S2aH3,S2aH7</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8962FB72-B9DB-4DF5-8524-6152CDD79AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2796A3-943D-4A54-8C6C-3BD475085A6C}">
   <dimension ref="A9:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E868B9F-56D5-4A28-9C60-18B4F4B1F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{472799D4-1E1E-4974-ABA4-37A5E6AE91C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -231,13 +231,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S1aH4,S2aH2,S1aH6,S2aH7,S1aH2,S1aH7,S2aH3,S1aH5,S2aH4,S2aH5,S2aH6</t>
+    <t>S1aH2,S1aH7,S2aH3,S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S2aH7,S1aH3,S1aH6,S2aH6</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2aH8,S1aH8,S2aH1,S1aH1</t>
+    <t>S2aH1,S2aH8,S1aH8,S1aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -840,7 +840,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2aH8,S1aH8,S2aH1,S1aH1</v>
+        <v>S2aH1,S2aH8,S1aH8,S1aH1</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -872,7 +872,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH3,S1aH4,S2aH2,S1aH6,S2aH7,S1aH2,S1aH7,S2aH3,S1aH5,S2aH4,S2aH5,S2aH6</v>
+        <v>S1aH2,S1aH7,S2aH3,S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S2aH7,S1aH3,S1aH6,S2aH6</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC8DF34-9B3B-4B92-B314-D89B0E805332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFCE5B2-ED1C-4BD0-8FF9-EEB19EFE1BCE}">
   <dimension ref="A9:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
